--- a/test/check03/check03_test04_in.xlsx
+++ b/test/check03/check03_test04_in.xlsx
@@ -5,33 +5,34 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\HFCCode\test\check03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\test\check03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650"/>
   </bookViews>
   <sheets>
-    <sheet name="1. incomplete" sheetId="1" r:id="rId1"/>
-    <sheet name="2. duplicates" sheetId="2" r:id="rId2"/>
-    <sheet name="3. consent" sheetId="3" r:id="rId3"/>
-    <sheet name="4. no miss" sheetId="4" r:id="rId4"/>
-    <sheet name="5. follow up" sheetId="5" r:id="rId5"/>
-    <sheet name="6. skip" sheetId="6" r:id="rId6"/>
-    <sheet name="7. all miss" sheetId="7" r:id="rId7"/>
-    <sheet name="8. constraints" sheetId="8" r:id="rId8"/>
-    <sheet name="9. specify" sheetId="9" r:id="rId9"/>
-    <sheet name="10. dates" sheetId="10" r:id="rId10"/>
-    <sheet name="11. outliers" sheetId="11" r:id="rId11"/>
-    <sheet name="enumdb" sheetId="13" r:id="rId12"/>
-    <sheet name="researchdb" sheetId="14" r:id="rId13"/>
+    <sheet name="0. setup" sheetId="15" r:id="rId1"/>
+    <sheet name="1. incomplete" sheetId="1" r:id="rId2"/>
+    <sheet name="2. duplicates" sheetId="2" r:id="rId3"/>
+    <sheet name="3. consent" sheetId="3" r:id="rId4"/>
+    <sheet name="4. no miss" sheetId="4" r:id="rId5"/>
+    <sheet name="5. follow up" sheetId="5" r:id="rId6"/>
+    <sheet name="6. skip" sheetId="6" r:id="rId7"/>
+    <sheet name="7. all miss" sheetId="7" r:id="rId8"/>
+    <sheet name="8. constraints" sheetId="8" r:id="rId9"/>
+    <sheet name="9. specify" sheetId="9" r:id="rId10"/>
+    <sheet name="10. dates" sheetId="10" r:id="rId11"/>
+    <sheet name="11. outliers" sheetId="11" r:id="rId12"/>
+    <sheet name="enumdb" sheetId="13" r:id="rId13"/>
+    <sheet name="researchdb" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>variable</t>
   </si>
@@ -116,12 +117,84 @@
   <si>
     <t>consent</t>
   </si>
+  <si>
+    <t>High Frequency Checks</t>
+  </si>
+  <si>
+    <t>1. File Definitions</t>
+  </si>
+  <si>
+    <t>Stata Dataset</t>
+  </si>
+  <si>
+    <t>HFC Input File</t>
+  </si>
+  <si>
+    <t>HFC Output File</t>
+  </si>
+  <si>
+    <t>HFC Enumerator File</t>
+  </si>
+  <si>
+    <t>HFC Research File</t>
+  </si>
+  <si>
+    <t>Replacements File (opt.)</t>
+  </si>
+  <si>
+    <t>Master Tracking Dataset (opt.)</t>
+  </si>
+  <si>
+    <t>2. Important Variables</t>
+  </si>
+  <si>
+    <t>Submission Date</t>
+  </si>
+  <si>
+    <t>Survey ID</t>
+  </si>
+  <si>
+    <t>Enumerator ID</t>
+  </si>
+  <si>
+    <t>Form Version</t>
+  </si>
+  <si>
+    <t>Geographic Cluster</t>
+  </si>
+  <si>
+    <t>3. Survey Definitions</t>
+  </si>
+  <si>
+    <t>Target Sample Size</t>
+  </si>
+  <si>
+    <t>SurveyCTO Server Name</t>
+  </si>
+  <si>
+    <t>Missing Value (.d)</t>
+  </si>
+  <si>
+    <t>Missing Value (.r)</t>
+  </si>
+  <si>
+    <t>Missing Value (.n)</t>
+  </si>
+  <si>
+    <t>4. HFC Options</t>
+  </si>
+  <si>
+    <t>Use SD for Outliers</t>
+  </si>
+  <si>
+    <t>Use Label for Factors</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -131,16 +204,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -148,11 +245,187 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -161,6 +434,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,25 +852,80 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1876211</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>339754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681143D1-0B4D-405D-BF5E-27182B503E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924086" y="0"/>
+          <a:ext cx="1505164" cy="720754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -554,8 +933,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="47625"/>
-          <a:ext cx="3648075" cy="1362075"/>
+          <a:off x="5572125" y="47624"/>
+          <a:ext cx="3648075" cy="2047875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -589,17 +968,17 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 1</a:t>
+            <a:t>HFC Check # 9</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check that all</a:t>
+            <a:t>Check specify</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> surveys are complete.</a:t>
+            <a:t> other variables for recodes or recategorizations.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -607,12 +986,14 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>Often</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>It is an IPA best practice to terminate surveys with a field for the enumerator to enter the status of the interview. This check verifies that all surveys in memory are completed, and lists incomplete surveys in the output file.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+            <a:t> categorical questions will include an other category with the option for the respondent to identify their own category in a separate text box. This check lists the non-missing values for these specify other variables in the output file to facilitate recodes (a user specifies a value that matches one of the original categories) or re-categorizations (if many similar other values are encountered).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -620,23 +1001,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -644,7 +1025,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="1514475"/>
+          <a:off x="5572125" y="2181225"/>
           <a:ext cx="3667125" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -681,7 +1062,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>variable</a:t>
+            <a:t>specify_variable</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
@@ -691,7 +1072,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the name of the survey status variable. </a:t>
+            <a:t>This column specifies the names of the specify other variables.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -701,23 +1082,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
+        <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -725,85 +1106,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="2181225"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>complete_value</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the value of the survey status variable that corresponds with a completed survey.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6962775" y="2876550"/>
+          <a:off x="5572125" y="2867025"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -840,7 +1143,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>keep_variable</a:t>
+            <a:t>output_variable</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -873,23 +1176,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11">
+        <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,7 +1200,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="3571875"/>
+          <a:off x="5572125" y="3571875"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -951,23 +1254,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7">
+        <xdr:cNvPr id="6" name="Group 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -975,7 +1278,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11258550" y="314325"/>
+          <a:off x="8429625" y="695325"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -983,10 +1286,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8">
+          <xdr:cNvPr id="7" name="TextBox 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1045,10 +1348,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9">
+          <xdr:cNvPr id="8" name="Rectangle 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1093,10 +1396,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 12">
+          <xdr:cNvPr id="9" name="Rectangle 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1145,7 +1448,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2057,7 +2360,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2676,7 +2979,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3364,6 +3667,625 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="47625"/>
+          <a:ext cx="3648075" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>HFC Check # 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Check that all</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> surveys are complete.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>It is an IPA best practice to terminate surveys with a field for the enumerator to enter the status of the interview. This check verifies that all surveys in memory are completed, and lists incomplete surveys in the output file.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="1514475"/>
+          <a:ext cx="3667125" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of the survey status variable. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="2181225"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>complete_value</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the value of the survey status variable that corresponds with a completed survey.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="2876550"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>keep_variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>enumerator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> are displayed.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="3571875"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>notes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11258550" y="314325"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3984,7 +4906,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4603,7 +5525,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5142,7 +6064,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5698,7 +6620,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6391,7 +7313,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6932,7 +7854,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7773,549 +8695,6 @@
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="11134727" y="2266950"/>
-            <a:ext cx="209548" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="47624"/>
-          <a:ext cx="3648075" cy="2047875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 9</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check specify</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> other variables for recodes or recategorizations.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
-            <a:t>Often</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t> categorical questions will include an other category with the option for the respondent to identify their own category in a separate text box. This check lists the non-missing values for these specify other variables in the output file to facilitate recodes (a user specifies a value that matches one of the original categories) or re-categorizations (if many similar other values are encountered).</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="2181225"/>
-          <a:ext cx="3667125" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>specify_variable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the names of the specify other variables.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="2867025"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>id </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>enumerator</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t> are displayed.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="3571875"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>notes</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8429625" y="695325"/>
-          <a:ext cx="1095375" cy="723900"/>
-          <a:chOff x="10401300" y="1847850"/>
-          <a:chExt cx="1095375" cy="723900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10401300" y="1847850"/>
-            <a:ext cx="1095375" cy="723900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Required</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Optional</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="11134727" y="1933575"/>
-            <a:ext cx="209548" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8661,46 +9040,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="28"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="28"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="28"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="23" priority="2">
-      <formula>$A1="variable"</formula>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$A1="specify_variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="22" priority="1">
+  <conditionalFormatting sqref="A1:C1048576">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8709,7 +9354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -8776,7 +9421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -8834,7 +9479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
@@ -9083,7 +9728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9104,6 +9749,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="expression" dxfId="23" priority="2">
+      <formula>$A1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E1048576">
+    <cfRule type="expression" dxfId="22" priority="1">
+      <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -9149,11 +9844,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -9200,7 +9895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -9267,7 +9962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -9313,7 +10008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -9379,7 +10074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C602"/>
   <sheetViews>
@@ -10019,7 +10714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
@@ -10531,91 +11226,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>$A1="specify_variable"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>$A1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/test/check03/check03_test04_in.xlsx
+++ b/test/check03/check03_test04_in.xlsx
@@ -25,14 +25,16 @@
     <sheet name="10. dates" sheetId="10" r:id="rId11"/>
     <sheet name="11. outliers" sheetId="11" r:id="rId12"/>
     <sheet name="enumdb" sheetId="13" r:id="rId13"/>
-    <sheet name="researchdb" sheetId="14" r:id="rId14"/>
+    <sheet name="research oneway" sheetId="16" r:id="rId14"/>
+    <sheet name="research twoway" sheetId="17" r:id="rId15"/>
+    <sheet name="researchdb" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>variable</t>
   </si>
@@ -188,6 +190,15 @@
   </si>
   <si>
     <t>Use Label for Factors</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>check03_test04.dta</t>
   </si>
 </sst>
 </file>
@@ -435,24 +446,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -486,11 +479,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -3658,6 +3727,1133 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7521BA0D-9006-470A-93CD-D88756D07DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="47625"/>
+          <a:ext cx="3648075" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Research</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> Dashboard: One-Way Summary</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Display one-way summaries of important research variables to monitor responses frequecies</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>/distributions.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t> command produces a spreadsheet of one-way variable summaries. It can be used to monitor response frequencies/distributions for key variables and help identify any threats to research validity.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CA1A2E-0211-4263-9684-E3FECD9506CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="1762125"/>
+          <a:ext cx="3667125" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the list of variables which will be used to create one-way summaries</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DB8E39-1310-45E8-99DB-C21FCB91446D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="2657475"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of variables whose rates of missing values are output per enumerator</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{303F1959-CD2A-4646-8CE8-09A3D916245E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8439150" y="495300"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F701A69E-CB8F-4ED7-8600-DD94AC0A5445}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F379CDFC-8516-4719-BA05-CD85E4FCB821}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052BDEA6-E27D-42E3-9FD3-5F884ACA74C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992B0464-367E-463C-820F-C5F60A4D77F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="3371850"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2379C5E-680C-43EE-BC77-20AC4FAF1DE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="47625"/>
+          <a:ext cx="3648075" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Research</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> Dashboard: Two-Way Summaries</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Display two-way summaries of important research variables to monitor responses frequecies</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>/distributions.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t> command produces a spreadsheet of two-way variable summaries. It can be used to monitor response frequencies/distributions for key variables and help identify any threats to research validity.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AEDC600-F1DC-428D-858F-4FAEACA2D38E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="1762125"/>
+          <a:ext cx="3667125" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the list of variables which will be used to create one-way summaries</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD7F3DCA-BA5C-4DE3-B52C-A853C05032B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="2657475"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of variables whose rates of missing values are output per enumerator</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A6245E-B027-4A42-B573-E0F3A61E1DB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="3352800"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>by</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the variable </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7829D5DE-92DE-48DB-A0C9-F24FEEB2FE8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9820275" y="495300"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D451C02-94C3-4540-9403-D2A232D0328E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD407DBA-F96C-4A37-A714-33322487E5E9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8237AD-BE2C-4B72-9CA4-695416939D49}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A59E78-E734-46CC-BF1B-BC658F823860}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="4048125"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9042,221 +10238,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="23" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="22"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="22"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="28"/>
+      <c r="A33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9340,12 +10538,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$A1="specify_variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9407,12 +10605,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$A1="startdate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9465,12 +10663,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9714,12 +10912,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$A1="dkrf_variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"", $E1&lt;&gt;"", $F1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9729,6 +10927,386 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:C89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="3"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$A1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C1048576">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", $C1&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:D89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="D81" s="4"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$A$1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:D1048576">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>OR(#REF!&lt;&gt;"", #REF!&lt;&gt;"", $A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9784,12 +11362,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9830,12 +11408,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9881,12 +11459,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9948,12 +11526,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9994,12 +11572,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10060,12 +11638,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10700,12 +12278,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11214,12 +12792,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
